--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="344">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T22:57:55+00:00</t>
+    <t>2022-09-09T22:32:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -292,7 +292,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -976,6 +976,10 @@
   </si>
   <si>
     <t>DiagnosticReport.media.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4439,13 +4443,13 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4496,7 +4500,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4517,7 +4521,7 @@
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -4525,7 +4529,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4554,7 +4558,7 @@
         <v>135</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>137</v>
@@ -4607,7 +4611,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4628,7 +4632,7 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -4636,11 +4640,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4662,10 +4666,10 @@
         <v>134</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>137</v>
@@ -4720,7 +4724,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4749,7 +4753,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4772,19 +4776,19 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>79</v>
@@ -4833,7 +4837,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -4854,7 +4858,7 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
@@ -4862,7 +4866,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4885,16 +4889,16 @@
         <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4944,7 +4948,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>88</v>
@@ -4965,7 +4969,7 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
@@ -4973,11 +4977,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4996,19 +5000,19 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>79</v>
@@ -5057,7 +5061,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5075,10 +5079,10 @@
         <v>79</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
@@ -5086,7 +5090,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5112,13 +5116,13 @@
         <v>180</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5147,10 +5151,10 @@
         <v>184</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>79</v>
@@ -5168,7 +5172,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5186,10 +5190,10 @@
         <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
@@ -5197,7 +5201,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5220,19 +5224,19 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>79</v>
@@ -5281,7 +5285,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5299,10 +5303,10 @@
         <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
